--- a/new_scroll/data/all_data.xlsx
+++ b/new_scroll/data/all_data.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="460" windowWidth="18000" windowHeight="14820" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2140" yWindow="460" windowWidth="18000" windowHeight="14820" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="10" r:id="rId1"/>
     <sheet name="Overall" sheetId="1" r:id="rId2"/>
     <sheet name="J_overall" sheetId="2" r:id="rId3"/>
+    <sheet name="table" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="121">
   <si>
     <t>City</t>
   </si>
@@ -375,6 +376,714 @@
   <si>
     <t>demographics</t>
   </si>
+  <si>
+    <t>[
+  {
+    "city": "Chicago",
+    "includes": "Evanston, Aurora, Joliet, Elgin, Naperville",
+    "state": "Illinois",
+    "latitude": 41.928881,
+    "longitude": -87.81381,
+    "radius": 17.7,
+    "fillKey": "green",
+    "overall_rankings": 1,
+    "startup": 1,
+    "resources": 1,
+    "demographics": 52
+  },
+  {
+    "city": "Minneapolis",
+    "includes": "Saint Paul",
+    "state": "Minnesota",
+    "latitude": 44.979265,
+    "longitude": -93.273024,
+    "radius": 17.3,
+    "fillKey": "green",
+    "overall_rankings": 2,
+    "startup": 2,
+    "resources": 2,
+    "demographics": 53
+  },
+  {
+    "city": "Pittsburgh",
+    "includes": "Elkhart",
+    "state": "Pennsylvania",
+    "latitude": 40.434436,
+    "longitude": -80.024817,
+    "radius": 17,
+    "fillKey": "green",
+    "overall_rankings": 3,
+    "startup": 3,
+    "resources": 3,
+    "demographics": 44
+  },
+  {
+    "city": "Cincinnati",
+    "includes": "Covington, KY",
+    "state": "Ohio",
+    "latitude": 39.166759,
+    "longitude": -84.53822,
+    "radius": 16.7,
+    "fillKey": "green",
+    "overall_rankings": 4,
+    "startup": 4,
+    "resources": 5,
+    "demographics": 40
+  },
+  {
+    "city": "Cleveland",
+    "includes": "Akron",
+    "state": "Ohio",
+    "latitude": 41.523401,
+    "longitude": -81.599648,
+    "radius": 16.3,
+    "fillKey": "green",
+    "overall_rankings": 5,
+    "startup": 5,
+    "resources": 7,
+    "demographics": 48
+  },
+  {
+    "city": "St. Louis",
+    "includes": 0,
+    "state": "Missouri",
+    "latitude": 38.631501,
+    "longitude": -90.19231,
+    "radius": 16,
+    "fillKey": "green",
+    "overall_rankings": 6,
+    "startup": 39,
+    "resources": 4,
+    "demographics": 41
+  },
+  {
+    "city": "Columbus",
+    "includes": 0,
+    "state": "Ohio",
+    "latitude": 40.040113,
+    "longitude": -82.897222,
+    "radius": 15.7,
+    "fillKey": "green",
+    "overall_rankings": 7,
+    "startup": 8,
+    "resources": 9,
+    "demographics": 38
+  },
+  {
+    "city": "Indianapolis",
+    "includes": "Fishers, Carmel, Noblesville, Westfield, Zionsville",
+    "state": "Indiana",
+    "latitude": 39.775092,
+    "longitude": -86.13216,
+    "radius": 15.3,
+    "fillKey": "green",
+    "overall_rankings": 8,
+    "startup": 6,
+    "resources": 12,
+    "demographics": 36
+  },
+  {
+    "city": "Madison",
+    "includes": 0,
+    "state": "Wisconsin",
+    "latitude": 43.06956,
+    "longitude": -89.423861,
+    "radius": 15,
+    "fillKey": "green",
+    "overall_rankings": 9,
+    "startup": 13,
+    "resources": 6,
+    "demographics": 51
+  },
+  {
+    "city": "Milwaukee",
+    "includes": 0,
+    "state": "Wisconsin",
+    "latitude": 43.011264,
+    "longitude": -87.958409,
+    "radius": 14.7,
+    "fillKey": "green",
+    "overall_rankings": 10,
+    "startup": 7,
+    "resources": 8,
+    "demographics": 49
+  },
+  {
+    "city": "Ann Arbor",
+    "includes": 0,
+    "state": "Michigan",
+    "latitude": 42.266638,
+    "longitude": -83.849042,
+    "radius": 14.3,
+    "fillKey": "blue",
+    "overall_rankings": 11,
+    "startup": 9,
+    "resources": 10,
+    "demographics": 45
+  },
+  {
+    "city": "Kansas City",
+    "includes": "Olathe, Kansas City, Independence, Overland Park",
+    "state": "Missouri",
+    "latitude": 39.102404,
+    "longitude": -94.598583,
+    "radius": 14,
+    "fillKey": "blue",
+    "overall_rankings": 12,
+    "startup": 15,
+    "resources": 13,
+    "demographics": 47
+  },
+  {
+    "city": "Omaha",
+    "includes": 0,
+    "state": "Nebraska",
+    "latitude": 41.291736,
+    "longitude": -96.171104,
+    "radius": 13.7,
+    "fillKey": "blue",
+    "overall_rankings": 13,
+    "startup": 11,
+    "resources": 14,
+    "demographics": 29
+  },
+  {
+    "city": "Detroit",
+    "includes": "Warren, Sterling Heights, Troy and Livonia",
+    "state": "Michigan",
+    "latitude": 42.239933,
+    "longitude": -83.150823,
+    "radius": 13.3,
+    "fillKey": "blue",
+    "overall_rankings": 14,
+    "startup": 29,
+    "resources": 11,
+    "demographics": 50
+  },
+  {
+    "city": "Louisvillle",
+    "includes": 0,
+    "state": "Kentucky",
+    "latitude": 38.188962,
+    "longitude": -85.676819,
+    "radius": 13,
+    "fillKey": "blue",
+    "overall_rankings": 15,
+    "startup": 10,
+    "resources": 26,
+    "demographics": 24
+  },
+  {
+    "city": "Champaign",
+    "includes": "Urbana",
+    "state": "Illinois",
+    "latitude": 40.101777,
+    "longitude": -88.197166,
+    "radius": 12.7,
+    "fillKey": "blue",
+    "overall_rankings": 16,
+    "startup": 23,
+    "resources": 16,
+    "demographics": 8
+  },
+  {
+    "city": "Grand Rapids",
+    "includes": 0,
+    "state": "Michigan",
+    "latitude": 42.984226,
+    "longitude": -85.629101,
+    "radius": 12.3,
+    "fillKey": "blue",
+    "overall_rankings": 17,
+    "startup": 14,
+    "resources": 25,
+    "demographics": 17
+  },
+  {
+    "city": "Lincoln",
+    "includes": 0,
+    "state": "Nebraska",
+    "latitude": 40.865142,
+    "longitude": -96.823133,
+    "radius": 12,
+    "fillKey": "blue",
+    "overall_rankings": 18,
+    "startup": 37,
+    "resources": 15,
+    "demographics": 16
+  },
+  {
+    "city": "Lexington",
+    "includes": 0,
+    "state": "Kentucky",
+    "latitude": 38.016674,
+    "longitude": -84.486043,
+    "radius": 11.7,
+    "fillKey": "blue",
+    "overall_rankings": 19,
+    "startup": 27,
+    "resources": 17,
+    "demographics": 21
+  },
+  {
+    "city": "Lafayette",
+    "includes": "West Lafayette",
+    "state": "Indiana",
+    "latitude": 40.39905,
+    "longitude": -86.830286,
+    "radius": 11.3,
+    "fillKey": "blue",
+    "overall_rankings": 20,
+    "startup": 24,
+    "resources": 22,
+    "demographics": 3
+  },
+  {
+    "city": "Dayton",
+    "includes": 0,
+    "state": "Ohio",
+    "latitude": 39.750471,
+    "longitude": -84.268593,
+    "radius": 11,
+    "fillKey": "blue",
+    "overall_rankings": 21,
+    "startup": 19,
+    "resources": 19,
+    "demographics": 43
+  },
+  {
+    "city": "Fargo",
+    "includes": 0,
+    "state": "North Dakota",
+    "latitude": 46.92536,
+    "longitude": -96.990615,
+    "radius": 10.7,
+    "fillKey": "blue",
+    "overall_rankings": 22,
+    "startup": 17,
+    "resources": 18,
+    "demographics": 35
+  },
+  {
+    "city": "South Bend",
+    "includes": "Elkhart",
+    "state": "Indiana",
+    "latitude": 41.673383,
+    "longitude": -86.251654,
+    "radius": 10.3,
+    "fillKey": "blue",
+    "overall_rankings": 23,
+    "startup": 12,
+    "resources": 39,
+    "demographics": 9
+  },
+  {
+    "city": "Bloomington",
+    "includes": 0,
+    "state": "Indiana",
+    "latitude": 40.462041,
+    "longitude": -88.850396,
+    "radius": 10,
+    "fillKey": "blue",
+    "overall_rankings": 24,
+    "startup": 46,
+    "resources": 23,
+    "demographics": 1
+  },
+  {
+    "city": "Wichita",
+    "includes": 0,
+    "state": "Kansas",
+    "latitude": 37.651974,
+    "longitude": -97.258997,
+    "radius": 9.7,
+    "fillKey": "blue",
+    "overall_rankings": 25,
+    "startup": 16,
+    "resources": 36,
+    "demographics": 13
+  },
+  {
+    "city": "Des Moines",
+    "includes": 0,
+    "state": "Iowa",
+    "latitude": 41.672687,
+    "longitude": -93.572173,
+    "radius": 9.3,
+    "fillKey": "purple",
+    "overall_rankings": 26,
+    "startup": 47,
+    "resources": 21,
+    "demographics": 37
+  },
+  {
+    "city": "Iowa City",
+    "includes": 0,
+    "state": "Iowa",
+    "latitude": 41.648207,
+    "longitude": -91.541579,
+    "radius": 9,
+    "fillKey": "purple",
+    "overall_rankings": 27,
+    "startup": 18,
+    "resources": 24,
+    "demographics": 31
+  },
+  {
+    "city": "Fort Wayne",
+    "includes": 0,
+    "state": "Indiana",
+    "latitude": 41.093763,
+    "longitude": -85.070713,
+    "radius": 8.7,
+    "fillKey": "purple",
+    "overall_rankings": 28,
+    "startup": 42,
+    "resources": 32,
+    "demographics": 3
+  },
+  {
+    "city": "Athens",
+    "includes": 0,
+    "state": "Ohio",
+    "latitude": 39.339279,
+    "longitude": -82.013803,
+    "radius": 8.3,
+    "fillKey": "purple",
+    "overall_rankings": 29,
+    "startup": 38,
+    "resources": 20,
+    "demographics": 20
+  },
+  {
+    "city": "State College",
+    "includes": 0,
+    "state": "Pennsylvania",
+    "latitude": 40.881935,
+    "longitude": -77.867822,
+    "radius": 8,
+    "fillKey": "purple",
+    "overall_rankings": 30,
+    "startup": 34,
+    "resources": 27,
+    "demographics": 39
+  },
+  {
+    "city": "Lansing",
+    "includes": "East Lansing",
+    "state": "Michigan",
+    "latitude": 42.599184,
+    "longitude": -84.371973,
+    "radius": 7.7,
+    "fillKey": "purple",
+    "overall_rankings": 31,
+    "startup": 49,
+    "resources": 30,
+    "demographics": 18
+  },
+  {
+    "city": "Ames",
+    "includes": 0,
+    "state": "Iowa",
+    "latitude": 42.037879,
+    "longitude": -93.600254,
+    "radius": 7.3,
+    "fillKey": "purple",
+    "overall_rankings": 32,
+    "startup": 20,
+    "resources": 33,
+    "demographics": 22
+  },
+  {
+    "city": "Evansville",
+    "includes": 0,
+    "state": "Indiana",
+    "latitude": 37.997128,
+    "longitude": -87.574963,
+    "radius": 7,
+    "fillKey": "purple",
+    "overall_rankings": 33,
+    "startup": 43,
+    "resources": 44,
+    "demographics": 6
+  },
+  {
+    "city": "Duluth",
+    "includes": 0,
+    "state": "Minesota",
+    "latitude": 47.005566,
+    "longitude": -92.001934,
+    "radius": 6.7,
+    "fillKey": "purple",
+    "overall_rankings": 34,
+    "startup": 40,
+    "resources": 29,
+    "demographics": 30
+  },
+  {
+    "city": "Green Bay",
+    "includes": 0,
+    "state": "Wisconsin",
+    "latitude": 44.494385,
+    "longitude": -87.976051,
+    "radius": 6.3,
+    "fillKey": "purple",
+    "overall_rankings": 35,
+    "startup": 25,
+    "resources": 46,
+    "demographics": 13
+  },
+  {
+    "city": "Columbia",
+    "includes": 0,
+    "state": "Missouri",
+    "latitude": 38.894165,
+    "longitude": -92.274145,
+    "radius": 6,
+    "fillKey": "purple",
+    "overall_rankings": 36,
+    "startup": 44,
+    "resources": 28,
+    "demographics": 24
+  },
+  {
+    "city": "Eau Claire",
+    "includes": 0,
+    "state": "Wisconsin",
+    "latitude": 44.75653,
+    "longitude": -91.473097,
+    "radius": 5.7,
+    "fillKey": "purple",
+    "overall_rankings": 37,
+    "startup": 32,
+    "resources": 41,
+    "demographics": 11
+  },
+  {
+    "city": "Springfield",
+    "includes": 0,
+    "state": "Missouri",
+    "latitude": 39.820839,
+    "longitude": -89.598978,
+    "radius": 5.3,
+    "fillKey": "purple",
+    "overall_rankings": 38,
+    "startup": 30,
+    "resources": 50,
+    "demographics": 5
+  },
+  {
+    "city": "Erie",
+    "includes": 0,
+    "state": "Pennsylvania",
+    "latitude": 42.087337,
+    "longitude": -80.087341,
+    "radius": 5,
+    "fillKey": "purple",
+    "overall_rankings": 39,
+    "startup": 26,
+    "resources": 40,
+    "demographics": 19
+  },
+  {
+    "city": "Youngstown",
+    "includes": 0,
+    "state": "Ohio",
+    "latitude": 41.017082,
+    "longitude": -80.802854,
+    "radius": 5,
+    "fillKey": "purple",
+    "overall_rankings": 40,
+    "startup": 21,
+    "resources": 48,
+    "demographics": 26
+  },
+  {
+    "city": "Toledo",
+    "includes": 0,
+    "state": "Ohio",
+    "latitude": 41.720684,
+    "longitude": -83.569359,
+    "radius": 5,
+    "fillKey": "purple",
+    "overall_rankings": 41,
+    "startup": 45,
+    "resources": 34,
+    "demographics": 27
+  },
+  {
+    "city": "Bloomington",
+    "includes": "Normal",
+    "state": "Illinois",
+    "latitude": 39.07881,
+    "longitude": -86.435094,
+    "radius": 5,
+    "fillKey": "purple",
+    "overall_rankings": 42,
+    "startup": 35,
+    "resources": 35,
+    "demographics": 32
+  },
+  {
+    "city": "Rochester",
+    "includes": 0,
+    "state": "Minnesota",
+    "latitude": 44.075285,
+    "longitude": -92.516916,
+    "radius": 5,
+    "fillKey": "purple",
+    "overall_rankings": 43,
+    "startup": 41,
+    "resources": 31,
+    "demographics": 34
+  },
+  {
+    "city": "Peoria",
+    "includes": 0,
+    "state": "Illinois",
+    "latitude": 40.693137,
+    "longitude": -89.589847,
+    "radius": 5,
+    "fillKey": "purple",
+    "overall_rankings": 44,
+    "startup": 31,
+    "resources": 37,
+    "demographics": 45
+  },
+  {
+    "city": "Sioux Falls",
+    "includes": 0,
+    "state": "South Dakota",
+    "latitude": 43.546358,
+    "longitude": -96.69063,
+    "radius": 5,
+    "fillKey": "purple",
+    "overall_rankings": 45,
+    "startup": 33,
+    "resources": 45,
+    "demographics": 28
+  },
+  {
+    "city": "Quad Cities",
+    "includes": "Davenport, Bettendorf, Rock Island, East Moline and Moline",
+    "state": "Iowa",
+    "latitude": 41.516667,
+    "longitude": -90.533333,
+    "radius": 5,
+    "fillKey": "purple",
+    "overall_rankings": 46,
+    "startup": 22,
+    "resources": 51,
+    "demographics": 33
+  },
+  {
+    "city": "Bowling Green",
+    "includes": 0,
+    "state": "Kentucky",
+    "latitude": 37.017407,
+    "longitude": -86.451752,
+    "radius": 5,
+    "fillKey": "purple",
+    "overall_rankings": 47,
+    "startup": 53,
+    "resources": 42,
+    "demographics": 2
+  },
+  {
+    "city": "Cedar Rapids",
+    "includes": 0,
+    "state": "Iowa",
+    "latitude": 41.976612,
+    "longitude": -91.657578,
+    "radius": 5,
+    "fillKey": "purple",
+    "overall_rankings": 48,
+    "startup": 48,
+    "resources": 38,
+    "demographics": 42
+  },
+  {
+    "city": "Flint",
+    "includes": 0,
+    "state": "Michigan",
+    "latitude": 42.965926,
+    "longitude": -83.780835,
+    "radius": 5,
+    "fillKey": "purple",
+    "overall_rankings": 49,
+    "startup": 36,
+    "resources": 52,
+    "demographics": 7
+  },
+  {
+    "city": "Rockford",
+    "includes": 0,
+    "state": "Illinois",
+    "latitude": 42.33342,
+    "longitude": -89.157198,
+    "radius": 5,
+    "fillKey": "purple",
+    "overall_rankings": 50,
+    "startup": 50,
+    "resources": 49,
+    "demographics": 12
+  },
+  {
+    "city": "Springfield",
+    "includes": 0,
+    "state": "Illinois",
+    "latitude": 37.25807,
+    "longitude": -93.343673,
+    "radius": 5,
+    "fillKey": "purple",
+    "overall_rankings": 51,
+    "startup": 51,
+    "resources": 43,
+    "demographics": 22
+  },
+  {
+    "city": "Topeka",
+    "includes": 0,
+    "state": "Kansas",
+    "latitude": 38.988075,
+    "longitude": -95.780662,
+    "radius": 5,
+    "fillKey": "purple",
+    "overall_rankings": 52,
+    "startup": 52,
+    "resources": 47,
+    "demographics": 10
+  },
+  {
+    "city": "Wheeling",
+    "includes": 0,
+    "state": "West Virginia",
+    "latitude": 40.102703,
+    "longitude": -80.647599,
+    "radius": 5,
+    "fillKey": "purple",
+    "overall_rankings": 53,
+    "startup": 28,
+    "resources": 53,
+    "demographics": 15
+  }
+]</t>
+  </si>
+  <si>
+    <t>Overall Rank</t>
+  </si>
+  <si>
+    <t>Startup</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Demographics</t>
+  </si>
+  <si>
+    <t>Invludes</t>
+  </si>
 </sst>
 </file>
 
@@ -383,10 +1092,17 @@
   <numFmts count="1">
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -424,12 +1140,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -458,14 +1180,17 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -753,55 +1478,55 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="H2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3" t="s">
+      <c r="N2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" s="3" t="s">
+      <c r="T2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7347,10 +8072,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:K54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7358,7 +8083,7 @@
     <col min="2" max="2" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -7394,8 +8119,11 @@
       <c r="K1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>Overall!B2</f>
         <v>Chicago</v>
@@ -7441,7 +8169,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>Overall!B3</f>
         <v>Minneapolis</v>
@@ -7487,7 +8215,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>Overall!B4</f>
         <v>Pittsburgh</v>
@@ -7533,7 +8261,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>Overall!B5</f>
         <v>Cincinnati</v>
@@ -7579,7 +8307,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>Overall!B6</f>
         <v>Cleveland</v>
@@ -7625,7 +8353,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>Overall!B7</f>
         <v xml:space="preserve">St. Louis </v>
@@ -7671,7 +8399,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>Overall!B8</f>
         <v>Columbus</v>
@@ -7717,7 +8445,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>Overall!B9</f>
         <v>Indianapolis</v>
@@ -7763,7 +8491,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>Overall!B10</f>
         <v>Madison</v>
@@ -7809,7 +8537,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>Overall!B11</f>
         <v>Milwaukee</v>
@@ -7855,7 +8583,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>Overall!B12</f>
         <v>Ann Arbor</v>
@@ -7901,7 +8629,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>Overall!B13</f>
         <v>Kansas City</v>
@@ -7947,7 +8675,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>Overall!B14</f>
         <v>Omaha</v>
@@ -7993,7 +8721,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>Overall!B15</f>
         <v>Detroit</v>
@@ -8039,7 +8767,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>Overall!B16</f>
         <v>Louisvillle</v>
@@ -9836,4 +10564,1632 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>J_overall!A2</f>
+        <v>Chicago</v>
+      </c>
+      <c r="B2" t="str">
+        <f>J_overall!B2</f>
+        <v>Evanston, Aurora, Joliet, Elgin, Naperville</v>
+      </c>
+      <c r="C2" t="str">
+        <f>J_overall!C2</f>
+        <v>Illinois</v>
+      </c>
+      <c r="D2">
+        <f>J_overall!H2</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>J_overall!I2</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>J_overall!J2</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>J_overall!K2</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>J_overall!A3</f>
+        <v>Minneapolis</v>
+      </c>
+      <c r="B3" t="str">
+        <f>J_overall!B3</f>
+        <v>Saint Paul</v>
+      </c>
+      <c r="C3" t="str">
+        <f>J_overall!C3</f>
+        <v>Minnesota</v>
+      </c>
+      <c r="D3">
+        <f>J_overall!H3</f>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f>J_overall!I3</f>
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f>J_overall!J3</f>
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f>J_overall!K3</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>J_overall!A4</f>
+        <v>Pittsburgh</v>
+      </c>
+      <c r="B4" t="str">
+        <f>J_overall!B4</f>
+        <v>Elkhart</v>
+      </c>
+      <c r="C4" t="str">
+        <f>J_overall!C4</f>
+        <v>Pennsylvania</v>
+      </c>
+      <c r="D4">
+        <f>J_overall!H4</f>
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f>J_overall!I4</f>
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f>J_overall!J4</f>
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f>J_overall!K4</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f>J_overall!A5</f>
+        <v>Cincinnati</v>
+      </c>
+      <c r="B5" t="str">
+        <f>J_overall!B5</f>
+        <v>Covington, KY</v>
+      </c>
+      <c r="C5" t="str">
+        <f>J_overall!C5</f>
+        <v>Ohio</v>
+      </c>
+      <c r="D5">
+        <f>J_overall!H5</f>
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f>J_overall!I5</f>
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f>J_overall!J5</f>
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <f>J_overall!K5</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f>J_overall!A6</f>
+        <v>Cleveland</v>
+      </c>
+      <c r="B6" t="str">
+        <f>J_overall!B6</f>
+        <v>Akron</v>
+      </c>
+      <c r="C6" t="str">
+        <f>J_overall!C6</f>
+        <v>Ohio</v>
+      </c>
+      <c r="D6">
+        <f>J_overall!H6</f>
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <f>J_overall!I6</f>
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <f>J_overall!J6</f>
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <f>J_overall!K6</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f>J_overall!A7</f>
+        <v xml:space="preserve">St. Louis </v>
+      </c>
+      <c r="B7">
+        <f>J_overall!B7</f>
+        <v>0</v>
+      </c>
+      <c r="C7" t="str">
+        <f>J_overall!C7</f>
+        <v>Missouri</v>
+      </c>
+      <c r="D7">
+        <f>J_overall!H7</f>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f>J_overall!I7</f>
+        <v>39</v>
+      </c>
+      <c r="F7">
+        <f>J_overall!J7</f>
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <f>J_overall!K7</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f>J_overall!A8</f>
+        <v>Columbus</v>
+      </c>
+      <c r="B8">
+        <f>J_overall!B8</f>
+        <v>0</v>
+      </c>
+      <c r="C8" t="str">
+        <f>J_overall!C8</f>
+        <v>Ohio</v>
+      </c>
+      <c r="D8">
+        <f>J_overall!H8</f>
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <f>J_overall!I8</f>
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <f>J_overall!J8</f>
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <f>J_overall!K8</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f>J_overall!A9</f>
+        <v>Indianapolis</v>
+      </c>
+      <c r="B9" t="str">
+        <f>J_overall!B9</f>
+        <v>Fishers, Carmel, Noblesville, Westfield, Zionsville</v>
+      </c>
+      <c r="C9" t="str">
+        <f>J_overall!C9</f>
+        <v>Indiana</v>
+      </c>
+      <c r="D9">
+        <f>J_overall!H9</f>
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <f>J_overall!I9</f>
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <f>J_overall!J9</f>
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <f>J_overall!K9</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>J_overall!A10</f>
+        <v>Madison</v>
+      </c>
+      <c r="B10">
+        <f>J_overall!B10</f>
+        <v>0</v>
+      </c>
+      <c r="C10" t="str">
+        <f>J_overall!C10</f>
+        <v>Wisconsin</v>
+      </c>
+      <c r="D10">
+        <f>J_overall!H10</f>
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <f>J_overall!I10</f>
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <f>J_overall!J10</f>
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <f>J_overall!K10</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>J_overall!A11</f>
+        <v>Milwaukee</v>
+      </c>
+      <c r="B11">
+        <f>J_overall!B11</f>
+        <v>0</v>
+      </c>
+      <c r="C11" t="str">
+        <f>J_overall!C11</f>
+        <v>Wisconsin</v>
+      </c>
+      <c r="D11">
+        <f>J_overall!H11</f>
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <f>J_overall!I11</f>
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <f>J_overall!J11</f>
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <f>J_overall!K11</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f>J_overall!A12</f>
+        <v>Ann Arbor</v>
+      </c>
+      <c r="B12">
+        <f>J_overall!B12</f>
+        <v>0</v>
+      </c>
+      <c r="C12" t="str">
+        <f>J_overall!C12</f>
+        <v>Michigan</v>
+      </c>
+      <c r="D12">
+        <f>J_overall!H12</f>
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <f>J_overall!I12</f>
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <f>J_overall!J12</f>
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <f>J_overall!K12</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f>J_overall!A13</f>
+        <v>Kansas City</v>
+      </c>
+      <c r="B13" t="str">
+        <f>J_overall!B13</f>
+        <v>Olathe, Kansas City, Independence, Overland Park</v>
+      </c>
+      <c r="C13" t="str">
+        <f>J_overall!C13</f>
+        <v>Missouri</v>
+      </c>
+      <c r="D13">
+        <f>J_overall!H13</f>
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <f>J_overall!I13</f>
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <f>J_overall!J13</f>
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <f>J_overall!K13</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f>J_overall!A14</f>
+        <v>Omaha</v>
+      </c>
+      <c r="B14">
+        <f>J_overall!B14</f>
+        <v>0</v>
+      </c>
+      <c r="C14" t="str">
+        <f>J_overall!C14</f>
+        <v>Nebraska</v>
+      </c>
+      <c r="D14">
+        <f>J_overall!H14</f>
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <f>J_overall!I14</f>
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <f>J_overall!J14</f>
+        <v>14</v>
+      </c>
+      <c r="G14">
+        <f>J_overall!K14</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f>J_overall!A15</f>
+        <v>Detroit</v>
+      </c>
+      <c r="B15" t="str">
+        <f>J_overall!B15</f>
+        <v>Warren, Sterling Heights, Troy and Livonia</v>
+      </c>
+      <c r="C15" t="str">
+        <f>J_overall!C15</f>
+        <v>Michigan</v>
+      </c>
+      <c r="D15">
+        <f>J_overall!H15</f>
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <f>J_overall!I15</f>
+        <v>29</v>
+      </c>
+      <c r="F15">
+        <f>J_overall!J15</f>
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <f>J_overall!K15</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f>J_overall!A16</f>
+        <v>Louisvillle</v>
+      </c>
+      <c r="B16">
+        <f>J_overall!B16</f>
+        <v>0</v>
+      </c>
+      <c r="C16" t="str">
+        <f>J_overall!C16</f>
+        <v>Kentucky</v>
+      </c>
+      <c r="D16">
+        <f>J_overall!H16</f>
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <f>J_overall!I16</f>
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <f>J_overall!J16</f>
+        <v>26</v>
+      </c>
+      <c r="G16">
+        <f>J_overall!K16</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f>J_overall!A17</f>
+        <v>Champaign</v>
+      </c>
+      <c r="B17" t="str">
+        <f>J_overall!B17</f>
+        <v>Urbana</v>
+      </c>
+      <c r="C17" t="str">
+        <f>J_overall!C17</f>
+        <v>Illinois</v>
+      </c>
+      <c r="D17">
+        <f>J_overall!H17</f>
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <f>J_overall!I17</f>
+        <v>23</v>
+      </c>
+      <c r="F17">
+        <f>J_overall!J17</f>
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <f>J_overall!K17</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f>J_overall!A18</f>
+        <v>Grand Rapids</v>
+      </c>
+      <c r="B18">
+        <f>J_overall!B18</f>
+        <v>0</v>
+      </c>
+      <c r="C18" t="str">
+        <f>J_overall!C18</f>
+        <v>Michigan</v>
+      </c>
+      <c r="D18">
+        <f>J_overall!H18</f>
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <f>J_overall!I18</f>
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <f>J_overall!J18</f>
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <f>J_overall!K18</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f>J_overall!A19</f>
+        <v>Lincoln</v>
+      </c>
+      <c r="B19">
+        <f>J_overall!B19</f>
+        <v>0</v>
+      </c>
+      <c r="C19" t="str">
+        <f>J_overall!C19</f>
+        <v>Nebraska</v>
+      </c>
+      <c r="D19">
+        <f>J_overall!H19</f>
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <f>J_overall!I19</f>
+        <v>37</v>
+      </c>
+      <c r="F19">
+        <f>J_overall!J19</f>
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <f>J_overall!K19</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f>J_overall!A20</f>
+        <v>Lexington</v>
+      </c>
+      <c r="B20">
+        <f>J_overall!B20</f>
+        <v>0</v>
+      </c>
+      <c r="C20" t="str">
+        <f>J_overall!C20</f>
+        <v>Kentucky</v>
+      </c>
+      <c r="D20">
+        <f>J_overall!H20</f>
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <f>J_overall!I20</f>
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <f>J_overall!J20</f>
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <f>J_overall!K20</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f>J_overall!A21</f>
+        <v>Lafayette</v>
+      </c>
+      <c r="B21" t="str">
+        <f>J_overall!B21</f>
+        <v>West Lafayette</v>
+      </c>
+      <c r="C21" t="str">
+        <f>J_overall!C21</f>
+        <v>Indiana</v>
+      </c>
+      <c r="D21">
+        <f>J_overall!H21</f>
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <f>J_overall!I21</f>
+        <v>24</v>
+      </c>
+      <c r="F21">
+        <f>J_overall!J21</f>
+        <v>22</v>
+      </c>
+      <c r="G21">
+        <f>J_overall!K21</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f>J_overall!A22</f>
+        <v>Dayton</v>
+      </c>
+      <c r="B22">
+        <f>J_overall!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C22" t="str">
+        <f>J_overall!C22</f>
+        <v>Ohio</v>
+      </c>
+      <c r="D22">
+        <f>J_overall!H22</f>
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <f>J_overall!I22</f>
+        <v>19</v>
+      </c>
+      <c r="F22">
+        <f>J_overall!J22</f>
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <f>J_overall!K22</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f>J_overall!A23</f>
+        <v>Fargo</v>
+      </c>
+      <c r="B23">
+        <f>J_overall!B23</f>
+        <v>0</v>
+      </c>
+      <c r="C23" t="str">
+        <f>J_overall!C23</f>
+        <v>North Dakota</v>
+      </c>
+      <c r="D23">
+        <f>J_overall!H23</f>
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <f>J_overall!I23</f>
+        <v>17</v>
+      </c>
+      <c r="F23">
+        <f>J_overall!J23</f>
+        <v>18</v>
+      </c>
+      <c r="G23">
+        <f>J_overall!K23</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f>J_overall!A24</f>
+        <v>South Bend</v>
+      </c>
+      <c r="B24" t="str">
+        <f>J_overall!B24</f>
+        <v>Elkhart</v>
+      </c>
+      <c r="C24" t="str">
+        <f>J_overall!C24</f>
+        <v>Indiana</v>
+      </c>
+      <c r="D24">
+        <f>J_overall!H24</f>
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <f>J_overall!I24</f>
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <f>J_overall!J24</f>
+        <v>39</v>
+      </c>
+      <c r="G24">
+        <f>J_overall!K24</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f>J_overall!A25</f>
+        <v>Bloomington</v>
+      </c>
+      <c r="B25">
+        <f>J_overall!B25</f>
+        <v>0</v>
+      </c>
+      <c r="C25" t="str">
+        <f>J_overall!C25</f>
+        <v>Indiana</v>
+      </c>
+      <c r="D25">
+        <f>J_overall!H25</f>
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <f>J_overall!I25</f>
+        <v>46</v>
+      </c>
+      <c r="F25">
+        <f>J_overall!J25</f>
+        <v>23</v>
+      </c>
+      <c r="G25">
+        <f>J_overall!K25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f>J_overall!A26</f>
+        <v>Wichita</v>
+      </c>
+      <c r="B26">
+        <f>J_overall!B26</f>
+        <v>0</v>
+      </c>
+      <c r="C26" t="str">
+        <f>J_overall!C26</f>
+        <v>Kansas</v>
+      </c>
+      <c r="D26">
+        <f>J_overall!H26</f>
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <f>J_overall!I26</f>
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <f>J_overall!J26</f>
+        <v>36</v>
+      </c>
+      <c r="G26">
+        <f>J_overall!K26</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f>J_overall!A27</f>
+        <v>Des Moines</v>
+      </c>
+      <c r="B27">
+        <f>J_overall!B27</f>
+        <v>0</v>
+      </c>
+      <c r="C27" t="str">
+        <f>J_overall!C27</f>
+        <v>Iowa</v>
+      </c>
+      <c r="D27">
+        <f>J_overall!H27</f>
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <f>J_overall!I27</f>
+        <v>47</v>
+      </c>
+      <c r="F27">
+        <f>J_overall!J27</f>
+        <v>21</v>
+      </c>
+      <c r="G27">
+        <f>J_overall!K27</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f>J_overall!A28</f>
+        <v>Iowa City</v>
+      </c>
+      <c r="B28">
+        <f>J_overall!B28</f>
+        <v>0</v>
+      </c>
+      <c r="C28" t="str">
+        <f>J_overall!C28</f>
+        <v>Iowa</v>
+      </c>
+      <c r="D28">
+        <f>J_overall!H28</f>
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <f>J_overall!I28</f>
+        <v>18</v>
+      </c>
+      <c r="F28">
+        <f>J_overall!J28</f>
+        <v>24</v>
+      </c>
+      <c r="G28">
+        <f>J_overall!K28</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <f>J_overall!A29</f>
+        <v>Fort Wayne</v>
+      </c>
+      <c r="B29">
+        <f>J_overall!B29</f>
+        <v>0</v>
+      </c>
+      <c r="C29" t="str">
+        <f>J_overall!C29</f>
+        <v>Indiana</v>
+      </c>
+      <c r="D29">
+        <f>J_overall!H29</f>
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <f>J_overall!I29</f>
+        <v>42</v>
+      </c>
+      <c r="F29">
+        <f>J_overall!J29</f>
+        <v>32</v>
+      </c>
+      <c r="G29">
+        <f>J_overall!K29</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <f>J_overall!A30</f>
+        <v>Athens</v>
+      </c>
+      <c r="B30">
+        <f>J_overall!B30</f>
+        <v>0</v>
+      </c>
+      <c r="C30" t="str">
+        <f>J_overall!C30</f>
+        <v>Ohio</v>
+      </c>
+      <c r="D30">
+        <f>J_overall!H30</f>
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <f>J_overall!I30</f>
+        <v>38</v>
+      </c>
+      <c r="F30">
+        <f>J_overall!J30</f>
+        <v>20</v>
+      </c>
+      <c r="G30">
+        <f>J_overall!K30</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f>J_overall!A31</f>
+        <v>State College</v>
+      </c>
+      <c r="B31">
+        <f>J_overall!B31</f>
+        <v>0</v>
+      </c>
+      <c r="C31" t="str">
+        <f>J_overall!C31</f>
+        <v>Pennsylvania</v>
+      </c>
+      <c r="D31">
+        <f>J_overall!H31</f>
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <f>J_overall!I31</f>
+        <v>34</v>
+      </c>
+      <c r="F31">
+        <f>J_overall!J31</f>
+        <v>27</v>
+      </c>
+      <c r="G31">
+        <f>J_overall!K31</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f>J_overall!A32</f>
+        <v>Lansing</v>
+      </c>
+      <c r="B32" t="str">
+        <f>J_overall!B32</f>
+        <v>East Lansing</v>
+      </c>
+      <c r="C32" t="str">
+        <f>J_overall!C32</f>
+        <v>Michigan</v>
+      </c>
+      <c r="D32">
+        <f>J_overall!H32</f>
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <f>J_overall!I32</f>
+        <v>49</v>
+      </c>
+      <c r="F32">
+        <f>J_overall!J32</f>
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <f>J_overall!K32</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <f>J_overall!A33</f>
+        <v xml:space="preserve">Ames </v>
+      </c>
+      <c r="B33">
+        <f>J_overall!B33</f>
+        <v>0</v>
+      </c>
+      <c r="C33" t="str">
+        <f>J_overall!C33</f>
+        <v>Iowa</v>
+      </c>
+      <c r="D33">
+        <f>J_overall!H33</f>
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <f>J_overall!I33</f>
+        <v>20</v>
+      </c>
+      <c r="F33">
+        <f>J_overall!J33</f>
+        <v>33</v>
+      </c>
+      <c r="G33">
+        <f>J_overall!K33</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <f>J_overall!A34</f>
+        <v>Evansville</v>
+      </c>
+      <c r="B34">
+        <f>J_overall!B34</f>
+        <v>0</v>
+      </c>
+      <c r="C34" t="str">
+        <f>J_overall!C34</f>
+        <v>Indiana</v>
+      </c>
+      <c r="D34">
+        <f>J_overall!H34</f>
+        <v>33</v>
+      </c>
+      <c r="E34">
+        <f>J_overall!I34</f>
+        <v>43</v>
+      </c>
+      <c r="F34">
+        <f>J_overall!J34</f>
+        <v>44</v>
+      </c>
+      <c r="G34">
+        <f>J_overall!K34</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="str">
+        <f>J_overall!A35</f>
+        <v xml:space="preserve">Duluth </v>
+      </c>
+      <c r="B35">
+        <f>J_overall!B35</f>
+        <v>0</v>
+      </c>
+      <c r="C35" t="str">
+        <f>J_overall!C35</f>
+        <v>Minesota</v>
+      </c>
+      <c r="D35">
+        <f>J_overall!H35</f>
+        <v>34</v>
+      </c>
+      <c r="E35">
+        <f>J_overall!I35</f>
+        <v>40</v>
+      </c>
+      <c r="F35">
+        <f>J_overall!J35</f>
+        <v>29</v>
+      </c>
+      <c r="G35">
+        <f>J_overall!K35</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
+        <f>J_overall!A36</f>
+        <v>Green Bay</v>
+      </c>
+      <c r="B36">
+        <f>J_overall!B36</f>
+        <v>0</v>
+      </c>
+      <c r="C36" t="str">
+        <f>J_overall!C36</f>
+        <v>Wisconsin</v>
+      </c>
+      <c r="D36">
+        <f>J_overall!H36</f>
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <f>J_overall!I36</f>
+        <v>25</v>
+      </c>
+      <c r="F36">
+        <f>J_overall!J36</f>
+        <v>46</v>
+      </c>
+      <c r="G36">
+        <f>J_overall!K36</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <f>J_overall!A37</f>
+        <v>Columbia</v>
+      </c>
+      <c r="B37">
+        <f>J_overall!B37</f>
+        <v>0</v>
+      </c>
+      <c r="C37" t="str">
+        <f>J_overall!C37</f>
+        <v>Missouri</v>
+      </c>
+      <c r="D37">
+        <f>J_overall!H37</f>
+        <v>36</v>
+      </c>
+      <c r="E37">
+        <f>J_overall!I37</f>
+        <v>44</v>
+      </c>
+      <c r="F37">
+        <f>J_overall!J37</f>
+        <v>28</v>
+      </c>
+      <c r="G37">
+        <f>J_overall!K37</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="str">
+        <f>J_overall!A38</f>
+        <v>Eau Claire</v>
+      </c>
+      <c r="B38">
+        <f>J_overall!B38</f>
+        <v>0</v>
+      </c>
+      <c r="C38" t="str">
+        <f>J_overall!C38</f>
+        <v>Wisconsin</v>
+      </c>
+      <c r="D38">
+        <f>J_overall!H38</f>
+        <v>37</v>
+      </c>
+      <c r="E38">
+        <f>J_overall!I38</f>
+        <v>32</v>
+      </c>
+      <c r="F38">
+        <f>J_overall!J38</f>
+        <v>41</v>
+      </c>
+      <c r="G38">
+        <f>J_overall!K38</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="str">
+        <f>J_overall!A39</f>
+        <v>Springfield</v>
+      </c>
+      <c r="B39">
+        <f>J_overall!B39</f>
+        <v>0</v>
+      </c>
+      <c r="C39" t="str">
+        <f>J_overall!C39</f>
+        <v>Missouri</v>
+      </c>
+      <c r="D39">
+        <f>J_overall!H39</f>
+        <v>38</v>
+      </c>
+      <c r="E39">
+        <f>J_overall!I39</f>
+        <v>30</v>
+      </c>
+      <c r="F39">
+        <f>J_overall!J39</f>
+        <v>50</v>
+      </c>
+      <c r="G39">
+        <f>J_overall!K39</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="str">
+        <f>J_overall!A40</f>
+        <v>Erie</v>
+      </c>
+      <c r="B40">
+        <f>J_overall!B40</f>
+        <v>0</v>
+      </c>
+      <c r="C40" t="str">
+        <f>J_overall!C40</f>
+        <v>Pennsylvania</v>
+      </c>
+      <c r="D40">
+        <f>J_overall!H40</f>
+        <v>39</v>
+      </c>
+      <c r="E40">
+        <f>J_overall!I40</f>
+        <v>26</v>
+      </c>
+      <c r="F40">
+        <f>J_overall!J40</f>
+        <v>40</v>
+      </c>
+      <c r="G40">
+        <f>J_overall!K40</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="str">
+        <f>J_overall!A41</f>
+        <v>Youngstown</v>
+      </c>
+      <c r="B41">
+        <f>J_overall!B41</f>
+        <v>0</v>
+      </c>
+      <c r="C41" t="str">
+        <f>J_overall!C41</f>
+        <v>Ohio</v>
+      </c>
+      <c r="D41">
+        <f>J_overall!H41</f>
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <f>J_overall!I41</f>
+        <v>21</v>
+      </c>
+      <c r="F41">
+        <f>J_overall!J41</f>
+        <v>48</v>
+      </c>
+      <c r="G41">
+        <f>J_overall!K41</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="str">
+        <f>J_overall!A42</f>
+        <v>Toledo</v>
+      </c>
+      <c r="B42">
+        <f>J_overall!B42</f>
+        <v>0</v>
+      </c>
+      <c r="C42" t="str">
+        <f>J_overall!C42</f>
+        <v>Ohio</v>
+      </c>
+      <c r="D42">
+        <f>J_overall!H42</f>
+        <v>41</v>
+      </c>
+      <c r="E42">
+        <f>J_overall!I42</f>
+        <v>45</v>
+      </c>
+      <c r="F42">
+        <f>J_overall!J42</f>
+        <v>34</v>
+      </c>
+      <c r="G42">
+        <f>J_overall!K42</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="str">
+        <f>J_overall!A43</f>
+        <v>Bloomington</v>
+      </c>
+      <c r="B43" t="str">
+        <f>J_overall!B43</f>
+        <v>Normal</v>
+      </c>
+      <c r="C43" t="str">
+        <f>J_overall!C43</f>
+        <v>Illinois</v>
+      </c>
+      <c r="D43">
+        <f>J_overall!H43</f>
+        <v>42</v>
+      </c>
+      <c r="E43">
+        <f>J_overall!I43</f>
+        <v>35</v>
+      </c>
+      <c r="F43">
+        <f>J_overall!J43</f>
+        <v>35</v>
+      </c>
+      <c r="G43">
+        <f>J_overall!K43</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="str">
+        <f>J_overall!A44</f>
+        <v>Rochester</v>
+      </c>
+      <c r="B44">
+        <f>J_overall!B44</f>
+        <v>0</v>
+      </c>
+      <c r="C44" t="str">
+        <f>J_overall!C44</f>
+        <v>Minnesota</v>
+      </c>
+      <c r="D44">
+        <f>J_overall!H44</f>
+        <v>43</v>
+      </c>
+      <c r="E44">
+        <f>J_overall!I44</f>
+        <v>41</v>
+      </c>
+      <c r="F44">
+        <f>J_overall!J44</f>
+        <v>31</v>
+      </c>
+      <c r="G44">
+        <f>J_overall!K44</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="str">
+        <f>J_overall!A45</f>
+        <v>Peoria</v>
+      </c>
+      <c r="B45">
+        <f>J_overall!B45</f>
+        <v>0</v>
+      </c>
+      <c r="C45" t="str">
+        <f>J_overall!C45</f>
+        <v>Illinois</v>
+      </c>
+      <c r="D45">
+        <f>J_overall!H45</f>
+        <v>44</v>
+      </c>
+      <c r="E45">
+        <f>J_overall!I45</f>
+        <v>31</v>
+      </c>
+      <c r="F45">
+        <f>J_overall!J45</f>
+        <v>37</v>
+      </c>
+      <c r="G45">
+        <f>J_overall!K45</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="str">
+        <f>J_overall!A46</f>
+        <v>Sioux Falls</v>
+      </c>
+      <c r="B46">
+        <f>J_overall!B46</f>
+        <v>0</v>
+      </c>
+      <c r="C46" t="str">
+        <f>J_overall!C46</f>
+        <v>South Dakota</v>
+      </c>
+      <c r="D46">
+        <f>J_overall!H46</f>
+        <v>45</v>
+      </c>
+      <c r="E46">
+        <f>J_overall!I46</f>
+        <v>33</v>
+      </c>
+      <c r="F46">
+        <f>J_overall!J46</f>
+        <v>45</v>
+      </c>
+      <c r="G46">
+        <f>J_overall!K46</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="str">
+        <f>J_overall!A47</f>
+        <v>Quad Cities</v>
+      </c>
+      <c r="B47" t="str">
+        <f>J_overall!B47</f>
+        <v>Davenport, Bettendorf, Rock Island, East Moline and Moline</v>
+      </c>
+      <c r="C47" t="str">
+        <f>J_overall!C47</f>
+        <v>Iowa</v>
+      </c>
+      <c r="D47">
+        <f>J_overall!H47</f>
+        <v>46</v>
+      </c>
+      <c r="E47">
+        <f>J_overall!I47</f>
+        <v>22</v>
+      </c>
+      <c r="F47">
+        <f>J_overall!J47</f>
+        <v>51</v>
+      </c>
+      <c r="G47">
+        <f>J_overall!K47</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="str">
+        <f>J_overall!A48</f>
+        <v>Bowling Green</v>
+      </c>
+      <c r="B48">
+        <f>J_overall!B48</f>
+        <v>0</v>
+      </c>
+      <c r="C48" t="str">
+        <f>J_overall!C48</f>
+        <v>Kentucky</v>
+      </c>
+      <c r="D48">
+        <f>J_overall!H48</f>
+        <v>47</v>
+      </c>
+      <c r="E48">
+        <f>J_overall!I48</f>
+        <v>53</v>
+      </c>
+      <c r="F48">
+        <f>J_overall!J48</f>
+        <v>42</v>
+      </c>
+      <c r="G48">
+        <f>J_overall!K48</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="str">
+        <f>J_overall!A49</f>
+        <v>Cedar Rapids</v>
+      </c>
+      <c r="B49">
+        <f>J_overall!B49</f>
+        <v>0</v>
+      </c>
+      <c r="C49" t="str">
+        <f>J_overall!C49</f>
+        <v>Iowa</v>
+      </c>
+      <c r="D49">
+        <f>J_overall!H49</f>
+        <v>48</v>
+      </c>
+      <c r="E49">
+        <f>J_overall!I49</f>
+        <v>48</v>
+      </c>
+      <c r="F49">
+        <f>J_overall!J49</f>
+        <v>38</v>
+      </c>
+      <c r="G49">
+        <f>J_overall!K49</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="str">
+        <f>J_overall!A50</f>
+        <v>Flint</v>
+      </c>
+      <c r="B50">
+        <f>J_overall!B50</f>
+        <v>0</v>
+      </c>
+      <c r="C50" t="str">
+        <f>J_overall!C50</f>
+        <v>Michigan</v>
+      </c>
+      <c r="D50">
+        <f>J_overall!H50</f>
+        <v>49</v>
+      </c>
+      <c r="E50">
+        <f>J_overall!I50</f>
+        <v>36</v>
+      </c>
+      <c r="F50">
+        <f>J_overall!J50</f>
+        <v>52</v>
+      </c>
+      <c r="G50">
+        <f>J_overall!K50</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="str">
+        <f>J_overall!A51</f>
+        <v>Rockford</v>
+      </c>
+      <c r="B51">
+        <f>J_overall!B51</f>
+        <v>0</v>
+      </c>
+      <c r="C51" t="str">
+        <f>J_overall!C51</f>
+        <v>Illinois</v>
+      </c>
+      <c r="D51">
+        <f>J_overall!H51</f>
+        <v>50</v>
+      </c>
+      <c r="E51">
+        <f>J_overall!I51</f>
+        <v>50</v>
+      </c>
+      <c r="F51">
+        <f>J_overall!J51</f>
+        <v>49</v>
+      </c>
+      <c r="G51">
+        <f>J_overall!K51</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="str">
+        <f>J_overall!A52</f>
+        <v>Springfield</v>
+      </c>
+      <c r="B52">
+        <f>J_overall!B52</f>
+        <v>0</v>
+      </c>
+      <c r="C52" t="str">
+        <f>J_overall!C52</f>
+        <v>Illinois</v>
+      </c>
+      <c r="D52">
+        <f>J_overall!H52</f>
+        <v>51</v>
+      </c>
+      <c r="E52">
+        <f>J_overall!I52</f>
+        <v>51</v>
+      </c>
+      <c r="F52">
+        <f>J_overall!J52</f>
+        <v>43</v>
+      </c>
+      <c r="G52">
+        <f>J_overall!K52</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="str">
+        <f>J_overall!A53</f>
+        <v>Topeka</v>
+      </c>
+      <c r="B53">
+        <f>J_overall!B53</f>
+        <v>0</v>
+      </c>
+      <c r="C53" t="str">
+        <f>J_overall!C53</f>
+        <v>Kansas</v>
+      </c>
+      <c r="D53">
+        <f>J_overall!H53</f>
+        <v>52</v>
+      </c>
+      <c r="E53">
+        <f>J_overall!I53</f>
+        <v>52</v>
+      </c>
+      <c r="F53">
+        <f>J_overall!J53</f>
+        <v>47</v>
+      </c>
+      <c r="G53">
+        <f>J_overall!K53</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="str">
+        <f>J_overall!A54</f>
+        <v>Wheeling</v>
+      </c>
+      <c r="B54">
+        <f>J_overall!B54</f>
+        <v>0</v>
+      </c>
+      <c r="C54" t="str">
+        <f>J_overall!C54</f>
+        <v>West Virginia</v>
+      </c>
+      <c r="D54">
+        <f>J_overall!H54</f>
+        <v>53</v>
+      </c>
+      <c r="E54">
+        <f>J_overall!I54</f>
+        <v>28</v>
+      </c>
+      <c r="F54">
+        <f>J_overall!J54</f>
+        <v>53</v>
+      </c>
+      <c r="G54">
+        <f>J_overall!K54</f>
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>